--- a/cursos.xlsx
+++ b/cursos.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1587 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome_Curso</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Análises Laboratorial de Áreas Ambientais – Novo Curso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/analises-laboratorial-de-areas-ambientais-novo-curso/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Cirurgia Oral e Estomatologia Clínica</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-cirurgia-oral-e-estomatologia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Cirurgia Periodontal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-cirurgia-periodontal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Competências Empreendedoras</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-competencias-empreendedoras/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em DTM e Dor Orofacial</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-dtm-e-dor-orofacial/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Endodontia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-endodontia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Farmacologia e Exames Comp. em Odontologia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-farmacologia-e-exames-comp-em-odontologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Ortopedia Funcional e Mecânica dos Maxilares</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-ortopedia-funcional-e-mecanica-dos-maxilares/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento Em Prótese Sobre Implantes</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-protese-sobre-implantes/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aperfeiçoamento em Sistema Toyota de Gestão</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aperfeicoamento-em-sistema-toyota-de-gestao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Atendimento Educacional Especializado (AEE)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/aee/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Autismo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/autismo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Avaliação Psicológica / NeuroPsicodiagnóstico</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/avaliacao-psicologica-neuropsicodiagnostico/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Biotecnologia em Experimentação e Biologia Celular Aplicada</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/biotecnologia-em-experimentacao-e-biologia-celular-aplicada/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciências Fisiológicas</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/ciencias-fisiologicas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cirurgia Minimamente Invasiva e Robótica</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/cirurgia-minimamente-invasiva-e-robotica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Citologia Clínica</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/citologia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Controladoria e Gestão Empresarial</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/controladoria-e-gestao-empresarial/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cuidados Clínicos em Saúde Mental</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/cuidados-clinicos-em-saude-mental/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cuidados Paliativos – Médicos</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/cuidados-paliativos-medicos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cuidados Paliativos – Multiprofissional</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/cuidados-paliativos-multiprofissional/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Infantil na Primeira Infância</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/desenvolvimento-infantil-na-primeira-infancia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Direito à Saúde</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-a-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Direito Corporativo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-corporativo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho e Processo Trabalhista</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-do-trabalho-e-processo-trabalhista/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Direito e Processo Penal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-e-processo-penal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Direito e Tecnologia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-e-tecnologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário e Processo Previdenciário</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-previdenciario-e-processo-previdenciario/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil (Enfoque Prático – Profissional)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito-processual-civil-enfoque-pratico-profissional/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Doenças Infecciosas e Parasitárias</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/doencas-infecciosas-e-parasitarias/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Enfermagem em Centro Cirúrgico, Recuperação Anestésica e Central de Material e Esterilização</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem-em-ca-ra-cme/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Enfermagem em Clínica Médica e Cirúrgica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem-em-clinica-medica-e-cirurgica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Enfermagem em Unidade Terapia Intensiva</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem-em-unidade-terapia-intensiva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Enfermagem Obstétrica e Saúde Reprodutiva</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem-obstetrica-e-saude-reprodutiva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Enfermagem Pediátrica e Neonatal</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem-pediatrica-e-neonatal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>﻿Engenharia de Saneamento Ambiental</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/engenharia-de-saneamento-ambiental/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Engenharia de Segurança do Trabalho</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-engenharia-de-seguranca-do-trabalho/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Especialização em ABA – Análise do Comportamento Aplicada no Autismo, Desenvolvimento Intelectual e Linguagem</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-aba-analise-do-comportamento-aplicada-no-autismo-desenvolvimento-intelectual-e-linguagem/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Especialização em Análises Clínicas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-analises-clinicas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Especialização em Ciência de Dados e Inteligência de Negócios</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-ciencia-de-dados-e-inteligencia-de-negocios/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Especialização em Dentística</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-dentistica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Especialização em Endodontia</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-endodontia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Especialização em Estética Avançada</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-estetica-avancada/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Especialização em Harmonização Orofacial</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-harmonizacao-orofacial/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Especialização em Implantodontia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-implantodontia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Especialização em Odontopediatria</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-odontopediatria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Especialização em Ortodontia</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-ortodontia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Especialização em Perícia Forense</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-pericia-forense/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Especialização em Perícia Forense (Saúde)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-pericia-forense-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Especialização em Periodontia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-periodontia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Especialização em Promoção da Saúde</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-promocao-da-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Especialização em Prótese Dentária</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-protese-dentaria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Especialização em Radioterapia</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/especializacao-em-radioterapia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Farmácia Clínica: Do Cuidado à Prescrição Farmacêutica</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/farmacia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fisioterapia Dermato-Funcional</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/fisioterapia-dermato-funcional/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fisioterapia em Assistência Domiciliar</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/fisioterapia-em-assistencia-domiciliar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fisioterapia em Terapia Intensiva</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/fisioterapia-em-terapia-intensiva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fisioterapia Neonatal e Pediátrica</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/fisioterapia-neonatal-e-pediatrica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fisioterapia Traumo-Ortopédica e Desportiva</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/fisioterapia-traumo-ortopedica-e-desportiva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Genética e Biologia Molecular Aplicada à Saúde</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/genetica-e-biologia-molecular-aplicada-a-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Gestalt-Terapia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/gestalt-terapia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Gestão Avançada de Resíduos Sólidos</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/gestao-avancada-de-residuos-solidos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Gestão Financeira de Custos</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/gestao-financeira-de-custos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Gestão Pública</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/gestao-publica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Habilitação em Laserterapia na Odontologia</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/habilitacao-em-laserterapia-na-odontologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Habilitação em Odontologia Hospitalar</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/habilitacao-em-odontologia-hospitalar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Habilitação em Sedação Consciente</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/habilitacao-em-sedacao-consciente/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hematologia Clínica e Banco de Sangue</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/hematologia-clinica-e-banco-de-sangue/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intervenções Comportamentais em Contextos Clínicos</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/intervencoes-comportamentais-em-contextos-clinicos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>﻿Latin Legum Magister (LL.M) em Business Law</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/latin-legum-magister-ll-m-em-business-law/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Latin Legum Magister (LL.M) em Contencioso Jurídico Cível</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/latin-legum-magister-ll-m-em-contencioso-juridico-civel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LL.M. em Direito e Processo Tributário</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/ll-m-em-direito-e-processo-tributario/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LL.M. em Direito Penal Tributário e Econômico</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/ll-m-em-direito-penal-tributario-e-economico/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MBA em Administração Estratégica</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-administracao-estrategica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MBA em Consultoria Corporativa</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-consultoria-corporativa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MBA em Empreendedorismo – EAD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-empreendedorismo-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MBA em Gerência de Projetos</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-gerencia-de-projetos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MBA em Gestão do Capital Humano e Liderança Corporativa</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-gestao-do-capital-humano-e-lideranca-corporativa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MBA em Gestão e Negócios Familiares</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-gestao-e-negocios-familiares/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MBA em Gestão e Planejamento de Tributos</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-gestao-e-planejamento-de-tributos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MBA em Gestão em Organizações de Saúde</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-gestao-em-organizacoes-de-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MBA em Governança, Riscos, Controle e Compliance</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-governanca-riscos-controle-e-compliance/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MBA em Logística</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-logistica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MBA em Marketing</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-marketing/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MBA em Marketing Estratégico – EAD</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-em-marketing-estrategico-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MBA Executivo em Finanças – EAD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/mba-executivo-em-financas-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Microbiologia Clínica</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/microbiologia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Neuroanatomia Clínica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/neuroanatomia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Neuroeducação</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/neuroeducacao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Neuropsicofarmacologia Aplicada à Saúde</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/neuropsicofarmacologia-aplicada-a-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Neuropsicologia</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/neuropsicologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nutrição Esportiva</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/nutricao-esportiva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nutrição para a Saúde Feminina e Estética</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/nutricao-para-a-saude-feminina-e-estetica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Odontologia para Pacientes com Necessidades Especiais (PNE)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/odontologia-para-pacientes-com-necessidades-especiais-pne/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oncologia Clínica</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/oncologia-clinica/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Osteopatia</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/osteopatia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Perícia e Auditoria Contábil</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/pericia-e-auditoria-contabil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Projetos Arquitetônicos em Hotelaria (Ênfase em Particularidades Operacionais)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/projetos-arquitetonicos-em-hotelaria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Psicologia do Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/psicologia-do-desenvolvimento/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Psicologia Junguiana</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/psicologia-junguiana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Psicopedagogia Clínica e Hospitalar</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/psicopedagogia-clinica-e-hospitalar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Psicoterapia Infantojuvenil</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/psicoterapia-infantojuvenil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Radiologia Odontológica e Imaginologia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/radiologia-odontologica-e-imaginologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Reprodução Humana Assistida</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/reproducao-humana-assistida/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tecnologia e Inovação em Saúde</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/tecnologia-e-inovacao-em-saude/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Terapia Cognitivo-Comportamental</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/terapia-cognitivo-comportamental/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tomografia Computadorizada com Ênfase em Protocolos Aplicáveis ao Radiodiagnóstico</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/tomografia-computadorizada-com-enfase-em-protocolos-aplicaveis-ao-radiodiagnostico/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Urgência e Emergência Pré-Hospitalar</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/urgencia-e-emergencia-pre-hospitalar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Administração</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-administracao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Administração EAD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/administracao-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Análise e Desenvolvimento de Sistemas</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-analise-e-desenvolvimento-de-sistemas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Arquitetura e Urbanismo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-arquitetura-e-urbanismo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Biomedicina</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-biomedicina/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ciências Contábeis</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/ciencias-contabeis/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ciências Contábeis EAD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/ciencias-contabeis-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Direito</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/direito/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Enfermagem</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/enfermagem/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Engenharia Civil</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-engenharia-civil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Engenharia de Produção</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-engenharia-de-producao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fisioterapia</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-fisioterapia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Gastronomia</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-gastronomia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Medicina</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/medicina/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Medicina Veterinária</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-medicina-veterinaria/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nutrição</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-nutricao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Odontologia</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-odontologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Pedagogia EAD</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/pedagogia-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Processos Gerenciais EAD</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/processos-gerenciais-ead/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Psicologia</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-psicologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Radiologia</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/radiologia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sistemas de Informação</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.unichristus.edu.br/curso/graduacao-em-sistemas-de-informacao/</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/cursos.xlsx
+++ b/cursos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
